--- a/src/main/webapp/template/批量新增型号耗料.xlsx
+++ b/src/main/webapp/template/批量新增型号耗料.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fang/Documents/我的坚果云/其他/IYOU工作室/阿米尔体育用品有限公司/模板文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myworkspace\product\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="10140" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="8865" yWindow="10140" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>型号</t>
     <rPh sb="0" eb="1">
@@ -59,50 +56,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位1</t>
+    <t>类别</t>
+    <rPh sb="0" eb="1">
+      <t>lei'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei'zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>xu'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量（双/单位）</t>
-    <rPh sb="0" eb="1">
-      <t>shu'liang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shuang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <rPh sb="0" eb="1">
-      <t>lei'bie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位2</t>
-    <rPh sb="0" eb="1">
-      <t>dan'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <rPh sb="0" eb="1">
-      <t>xu'hao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +136,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,21 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,22 +432,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/template/批量新增型号耗料.xlsx
+++ b/src/main/webapp/template/批量新增型号耗料.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myworkspace\product\src\main\webapp\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘宇qing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>型号</t>
     <rPh sb="0" eb="1">
@@ -81,6 +81,10 @@
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,21 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,18 +433,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
